--- a/source_code/data/results/[0_basic]_#_inv_capacity.xlsx
+++ b/source_code/data/results/[0_basic]_#_inv_capacity.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.06545340903889714</v>
+        <v>0.05602014202366901</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04267387738778049</v>
+        <v>0.01694332300008439</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1644967774358236</v>
+        <v>0.1795388544357392</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361375029</v>
+        <v>0.2494892361374987</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.692363821307573</v>
+        <v>4.774868004651773</v>
       </c>
     </row>
   </sheetData>
@@ -595,10 +595,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.178977908371006</v>
+        <v>0.244554811391483</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09343150004804314</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4470625727783414</v>
+        <v>0.4447634174008636</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.76465899862129</v>
+        <v>9.678720155011838</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +698,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2388722137201875</v>
+        <v>0.1879007235847371</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3027054999999999</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9398507201960703</v>
+        <v>0.68227937423846</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>14.52156928079667</v>
+        <v>15.80904881179059</v>
       </c>
     </row>
   </sheetData>

--- a/source_code/data/results/[0_basic]_#_inv_capacity.xlsx
+++ b/source_code/data/results/[0_basic]_#_inv_capacity.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.05602014202366901</v>
+        <v>0.05602014202366899</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01694332300008439</v>
+        <v>0.0169433230000916</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1795388544357392</v>
+        <v>0.179538854435732</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374987</v>
+        <v>0.249489236137498</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.774868004651773</v>
+        <v>4.77486800465178</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.244554811391483</v>
+        <v>0.2445548113914829</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4447634174008636</v>
+        <v>0.444763417400864</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.678720155011838</v>
+        <v>9.678720155011767</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1879007235847371</v>
+        <v>0.1879007235847566</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.68227937423846</v>
+        <v>0.6822793742384641</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.80904881179059</v>
+        <v>15.80904881179005</v>
       </c>
     </row>
   </sheetData>
